--- a/data/trans_bre/P38B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Habitat-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P38B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,59%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,27; 15,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,26; 11,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,07; 12,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; 20,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,07; 14,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,33; 15,1</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,17</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,16%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 6,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 9,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,27; 11,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 8,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,38; 11,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,55; 13,95</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,03%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,67; 8,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,56; 11,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,53; 22,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,06; 10,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,58; 14,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,85; 37,76</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,03</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,58%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,68; 10,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,92; 10,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,95; 14,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,31; 13,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,46; 13,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,71; 18,85</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,36%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,49; 9,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 5,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 9,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,2; 12,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; 7,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 11,89</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,24%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,96; 7,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,63; 7,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,8; 11,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,79; 9,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,4; 9,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,04; 15,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>6,23%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 15,38</t>
+          <t>-0,31; 7,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 11,23</t>
+          <t>0,47; 7,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 12,35</t>
+          <t>1,52; 10,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 20,03</t>
+          <t>-0,33; 8,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 14,18</t>
+          <t>0,57; 9,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 15,1</t>
+          <t>1,69; 12,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>8,66</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>22,81</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>36,82%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 6,83</t>
+          <t>1,67; 8,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 9,07</t>
+          <t>5,56; 11,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 11,46</t>
+          <t>5,31; 51,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 8,5</t>
+          <t>2,06; 10,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 11,3</t>
+          <t>6,58; 14,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 13,95</t>
+          <t>6,73; 155,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>7,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,32</t>
+          <t>9,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>12,44%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 8,24</t>
+          <t>3,68; 10,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 11,68</t>
+          <t>2,92; 10,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,53; 22,61</t>
+          <t>4,89; 17,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 10,47</t>
+          <t>4,31; 13,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,58; 14,52</t>
+          <t>3,46; 13,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,85; 37,76</t>
+          <t>5,91; 23,93</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,66</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>1,49%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,68; 10,99</t>
+          <t>3,49; 9,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 10,48</t>
+          <t>-1,26; 5,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 14,2</t>
+          <t>-17,3; 8,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,31; 13,48</t>
+          <t>4,2; 12,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,46; 13,26</t>
+          <t>-1,51; 7,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 18,85</t>
+          <t>-21,05; 10,55</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>11,37</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>15,11%</t>
         </is>
       </c>
     </row>
@@ -962,124 +962,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,49; 9,8</t>
+          <t>3,96; 7,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 5,65</t>
+          <t>3,63; 7,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 9,26</t>
+          <t>4,24; 28,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,2; 12,39</t>
+          <t>4,79; 9,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 7,18</t>
+          <t>4,4; 9,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 11,89</t>
+          <t>5,25; 46,99</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>5,65</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,53</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>7,34</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,88%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>6,75%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>9,24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>3,96; 7,41</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3,63; 7,33</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>4,8; 11,56</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>4,79; 9,2</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>4,4; 9,03</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>6,04; 15,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P38B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Habitat-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 7,23</t>
+          <t>-0,16; 7,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 7,99</t>
+          <t>0,4; 7,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 10,16</t>
+          <t>1,7; 10,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 8,98</t>
+          <t>-0,18; 8,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 9,86</t>
+          <t>0,46; 9,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 12,23</t>
+          <t>1,91; 13,04</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 8,24</t>
+          <t>1,81; 8,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,56; 11,68</t>
+          <t>5,54; 11,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,31; 51,94</t>
+          <t>5,61; 51,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 10,47</t>
+          <t>2,23; 10,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,58; 14,52</t>
+          <t>6,62; 14,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,73; 155,0</t>
+          <t>7,26; 155,96</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 10,99</t>
+          <t>3,53; 10,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 10,48</t>
+          <t>3,23; 10,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 17,94</t>
+          <t>5,08; 17,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 13,48</t>
+          <t>4,16; 12,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 13,26</t>
+          <t>3,92; 13,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,91; 23,93</t>
+          <t>6,25; 22,8</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 9,8</t>
+          <t>3,67; 10,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 5,65</t>
+          <t>-1,05; 5,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 8,4</t>
+          <t>-14,3; 8,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 12,39</t>
+          <t>4,38; 12,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 7,18</t>
+          <t>-1,29; 7,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,05; 10,55</t>
+          <t>-17,07; 10,21</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,41</t>
+          <t>3,96; 7,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,33</t>
+          <t>3,81; 7,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,24; 28,24</t>
+          <t>4,37; 31,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,79; 9,2</t>
+          <t>4,75; 9,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,4; 9,03</t>
+          <t>4,59; 9,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,25; 46,99</t>
+          <t>5,38; 54,37</t>
         </is>
       </c>
     </row>
